--- a/Alomvaros.xlsx
+++ b/Alomvaros.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D242TAN-02\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D5BF27-21CF-4B6E-AD26-3B02126546B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD0C370-6B6C-4017-A1BE-F9553BA0C154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="10695" activeTab="3" xr2:uid="{7F146E1F-84D3-49EE-ABA4-57AD93846553}"/>
   </bookViews>
   <sheets>
     <sheet name="Epuletek" sheetId="1" r:id="rId1"/>
-    <sheet name="Lakosok" sheetId="2" r:id="rId2"/>
-    <sheet name="Szolgaltatasok" sheetId="3" r:id="rId3"/>
+    <sheet name="Szolgaltatasok" sheetId="5" r:id="rId2"/>
+    <sheet name="Lakosok" sheetId="2" r:id="rId3"/>
     <sheet name="Varosfejlesztes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>projekt_azon</t>
   </si>
@@ -208,6 +208,93 @@
   </si>
   <si>
     <t>Szilágyi Noémi</t>
+  </si>
+  <si>
+    <t>tipus</t>
+  </si>
+  <si>
+    <t>epites_eve</t>
+  </si>
+  <si>
+    <t>hasznos _terulet_m2</t>
+  </si>
+  <si>
+    <t>Napfény Lakópark</t>
+  </si>
+  <si>
+    <t>Lakóház</t>
+  </si>
+  <si>
+    <t>Duna Apartmanház</t>
+  </si>
+  <si>
+    <t>Collect Residence</t>
+  </si>
+  <si>
+    <t>Álomváros Gimnázium</t>
+  </si>
+  <si>
+    <t>Iskola</t>
+  </si>
+  <si>
+    <t>Iskolai sportcsarnok</t>
+  </si>
+  <si>
+    <t>Sportlétesítmény</t>
+  </si>
+  <si>
+    <t>Központi Kórház</t>
+  </si>
+  <si>
+    <t>Korház</t>
+  </si>
+  <si>
+    <t>Buszpályaudvar</t>
+  </si>
+  <si>
+    <t>Közlekedés</t>
+  </si>
+  <si>
+    <t>Csillag ABC</t>
+  </si>
+  <si>
+    <t>Üzlet</t>
+  </si>
+  <si>
+    <t>Amped Music Kft.</t>
+  </si>
+  <si>
+    <t>Vállalat</t>
+  </si>
+  <si>
+    <t>Aranytányér Étterem</t>
+  </si>
+  <si>
+    <t>Étterem</t>
+  </si>
+  <si>
+    <t>Domonkos György Egyetem</t>
+  </si>
+  <si>
+    <t>szolg_azon</t>
+  </si>
+  <si>
+    <t>Oktatás</t>
+  </si>
+  <si>
+    <t>Egészségügy</t>
+  </si>
+  <si>
+    <t>Kereskedelem</t>
+  </si>
+  <si>
+    <t>Rendezvényhelyszín</t>
+  </si>
+  <si>
+    <t>Vendéglátás</t>
+  </si>
+  <si>
+    <t>Domomkos Egyetem</t>
   </si>
 </sst>
 </file>
@@ -296,7 +383,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,9 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,117 +742,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB30297-5BC0-480E-BD74-820FA21FA09C}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45292</v>
-      </c>
-      <c r="E2" s="4">
-        <v>46022</v>
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2005</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>502</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>12000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45092</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>503</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1985</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>107</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1995</v>
+      </c>
+      <c r="E8" s="2">
         <v>3000</v>
       </c>
-      <c r="D4" s="4">
-        <v>45392</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45930</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>504</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>12000</v>
-      </c>
-      <c r="D5" s="4">
-        <v>45392</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45945</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>505</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>18000</v>
-      </c>
-      <c r="D6" s="4">
-        <v>45170</v>
-      </c>
-      <c r="E6" s="4">
-        <v>46023</v>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>108</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1991</v>
+      </c>
+      <c r="E9" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>109</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>201</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E11" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>202</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -777,11 +966,182 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B13CF1-5BB8-4188-A7B5-15F452FD4A0E}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="8">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C741DD07-B874-4F49-B324-E8389BB02D5E}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,1078 +1154,529 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>212</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1965</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>203</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>1975</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>221</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1978</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>201</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1980</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>214</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1990</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>222</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1997</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>219</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>2006</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>224</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>2009</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>220</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1983</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>202</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1992</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>223</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>1994</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>213</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>1995</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>206</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>1999</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>228</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>2003</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>211</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>2005</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>226</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>2007</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>215</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>2008</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>204</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>1988</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>205</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>2001</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>209</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>2010</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>218</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>2011</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>230</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>2012</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>207</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>2012</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>216</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>2013</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>225</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>2016</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>210</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>2017</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>227</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>2018</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>229</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>2019</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>208</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>2020</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>217</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>2024</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="6">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66A72E4-E021-46A5-A78A-07A96A54442E}">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>212</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1965</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="9">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>203</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1975</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="9">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>221</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1978</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="9">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>201</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1980</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>214</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1990</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="9">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>222</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1997</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="9">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>219</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2006</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>224</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2009</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="9">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>220</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1983</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="9">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>202</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1992</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="9">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>223</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1994</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="9">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>213</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1995</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="9">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>206</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1999</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="9">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>228</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2003</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="9">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>211</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2005</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="9">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>226</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2007</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="9">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>215</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2008</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="9">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>204</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="9">
-        <v>1988</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>205</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2001</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>209</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="9">
-        <v>2010</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>218</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2011</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>230</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="9">
-        <v>2012</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>207</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="9">
-        <v>2012</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>216</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="9">
-        <v>2013</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>225</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="9">
-        <v>2016</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>210</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="9">
-        <v>2017</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>227</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="9">
-        <v>2018</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>229</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="9">
-        <v>2019</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>208</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="9">
-        <v>2020</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>217</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="9">
-        <v>2024</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="9">
+      <c r="E31" s="5">
         <v>103</v>
       </c>
     </row>
@@ -1879,7 +1690,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,104 +1701,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>501</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>5000</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>45292</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>46022</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>502</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>12000</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>45092</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>45627</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>503</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>3000</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>45392</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>45930</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>504</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>12000</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>45392</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>45945</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>505</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>18000</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>45170</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>46023</v>
       </c>
     </row>

--- a/Alomvaros.xlsx
+++ b/Alomvaros.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D242TAN-02\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D242TAN-01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD0C370-6B6C-4017-A1BE-F9553BA0C154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D87923-B15A-46FA-A0E8-870F0C306845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="10695" activeTab="3" xr2:uid="{7F146E1F-84D3-49EE-ABA4-57AD93846553}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{7F146E1F-84D3-49EE-ABA4-57AD93846553}"/>
   </bookViews>
   <sheets>
-    <sheet name="Epuletek" sheetId="1" r:id="rId1"/>
-    <sheet name="Szolgaltatasok" sheetId="5" r:id="rId2"/>
-    <sheet name="Lakosok" sheetId="2" r:id="rId3"/>
-    <sheet name="Varosfejlesztes" sheetId="4" r:id="rId4"/>
+    <sheet name="Epuletstilusarány" sheetId="7" r:id="rId1"/>
+    <sheet name="Epuletek" sheetId="1" r:id="rId2"/>
+    <sheet name="Szolgaltatasok" sheetId="5" r:id="rId3"/>
+    <sheet name="Lakosok" sheetId="2" r:id="rId4"/>
+    <sheet name="Varosfejlesztes" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
   <si>
     <t>projekt_azon</t>
   </si>
@@ -295,13 +299,135 @@
   </si>
   <si>
     <t>Domomkos Egyetem</t>
+  </si>
+  <si>
+    <t>Sorcímkék</t>
+  </si>
+  <si>
+    <t>Végösszeg</t>
+  </si>
+  <si>
+    <t>Mennyiség / tipus</t>
+  </si>
+  <si>
+    <t>1. csoport (1-6):</t>
+  </si>
+  <si>
+    <t>1, 5, 6, 7, 8, 9</t>
+  </si>
+  <si>
+    <t>2. csoport (7-13):</t>
+  </si>
+  <si>
+    <t>12, 13, 13, 14, 15, 16, 17</t>
+  </si>
+  <si>
+    <t>3. csoport (14-19):</t>
+  </si>
+  <si>
+    <t>18, 19, 20, 22, 24</t>
+  </si>
+  <si>
+    <t>4. csoport (20-30):</t>
+  </si>
+  <si>
+    <t>26, 28, 30, 31, 33</t>
+  </si>
+  <si>
+    <t>5. csoport (31-60):</t>
+  </si>
+  <si>
+    <t>35, 37, 42, 45, 47, 50, 60</t>
+  </si>
+  <si>
+    <t>Ezáltal az 5 csoport a következő számokat tartalmazza:</t>
+  </si>
+  <si>
+    <r>
+      <t>1. csoport:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1, 5, 6, 7, 8, 9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. csoport:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12, 13, 13, 14, 15, 16, 17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. csoport:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 18, 19, 20, 22, 24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. csoport:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 26, 28, 30, 31, 33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. csoport:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 35, 37, 42, 45, 47, 50, 60</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +447,15 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -383,7 +518,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,6 +559,18 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -434,6 +581,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9966"/>
+      <color rgb="FF9999FF"/>
+      <color rgb="FF66FF99"/>
+      <color rgb="FF996600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -443,6 +598,1477 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Alomvaros.xlsx]Epuletstilusarány!Kimutatás2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Épület arányok</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="996600"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="66FF99"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="9999FF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF9966"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8260354143529202E-2"/>
+          <c:y val="0.22600901603998952"/>
+          <c:w val="0.61323600001663814"/>
+          <c:h val="0.6516679924321841"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Epuletstilusarány!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Összeg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="996600"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-5A66-42B4-A6FF-B6875777EE89}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="66FF99"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5A66-42B4-A6FF-B6875777EE89}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9966"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5A66-42B4-A6FF-B6875777EE89}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5A66-42B4-A6FF-B6875777EE89}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5A66-42B4-A6FF-B6875777EE89}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9999FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-5A66-42B4-A6FF-B6875777EE89}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5A66-42B4-A6FF-B6875777EE89}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Epuletstilusarány!$A$4:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Étterem</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iskola</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Korház</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Közlekedés</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lakóház</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sportlétesítmény</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Üzlet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vállalat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Epuletstilusarány!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A66-42B4-A6FF-B6875777EE89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:overlap val="100"/>
+        <c:axId val="1112737568"/>
+        <c:axId val="1112912848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1112737568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1112912848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1112912848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1112737568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75432255595625819"/>
+          <c:y val="0.23043035537817488"/>
+          <c:w val="0.23299915561267995"/>
+          <c:h val="0.67064448476329297"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62A8CFF-E7A5-4CAF-B60A-EA5FF126E0C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="D242TAN-01" refreshedDate="45729.387283449076" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="11" xr:uid="{968453F5-8AE0-4A88-ACA7-599641F9F5FD}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:C12" sheet="Epuletek"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="tipus" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Lakóház"/>
+        <s v="Iskola"/>
+        <s v="Sportlétesítmény"/>
+        <s v="Korház"/>
+        <s v="Közlekedés"/>
+        <s v="Üzlet"/>
+        <s v="Vállalat"/>
+        <s v="Étterem"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="11">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AE87394-0D43-453E-8F50-0C123E100821}" name="Kimutatás2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Értékek" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Mennyiség / tipus" fld="0" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -741,11 +2367,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9E5E73-D9F2-44BA-B8C8-3694E1874FD5}">
+  <dimension ref="A3:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="16">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="16">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="16">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="16">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="16">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="16">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB30297-5BC0-480E-BD74-820FA21FA09C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C1" sqref="C1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +2691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B13CF1-5BB8-4188-A7B5-15F452FD4A0E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1136,12 +2862,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C741DD07-B874-4F49-B324-E8389BB02D5E}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,7 +2879,7 @@
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1170,7 +2896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>212</v>
       </c>
@@ -1186,8 +2912,12 @@
       <c r="E2" s="5">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f ca="1">YEAR(TODAY())-$C2</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>203</v>
       </c>
@@ -1203,8 +2933,12 @@
       <c r="E3" s="5">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f t="shared" ref="J3:J31" ca="1" si="0">YEAR(TODAY())-$C3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>221</v>
       </c>
@@ -1220,8 +2954,15 @@
       <c r="E4" s="5">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>201</v>
       </c>
@@ -1237,8 +2978,15 @@
       <c r="E5" s="5">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="M5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>214</v>
       </c>
@@ -1254,8 +3002,12 @@
       <c r="E6" s="5">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>222</v>
       </c>
@@ -1271,8 +3023,15 @@
       <c r="E7" s="5">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>219</v>
       </c>
@@ -1288,8 +3047,15 @@
       <c r="E8" s="5">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>224</v>
       </c>
@@ -1305,8 +3071,12 @@
       <c r="E9" s="5">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>220</v>
       </c>
@@ -1322,8 +3092,15 @@
       <c r="E10" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>202</v>
       </c>
@@ -1339,8 +3116,15 @@
       <c r="E11" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>223</v>
       </c>
@@ -1356,8 +3140,12 @@
       <c r="E12" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>213</v>
       </c>
@@ -1373,8 +3161,15 @@
       <c r="E13" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>206</v>
       </c>
@@ -1390,8 +3185,15 @@
       <c r="E14" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>228</v>
       </c>
@@ -1407,8 +3209,12 @@
       <c r="E15" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>211</v>
       </c>
@@ -1424,8 +3230,15 @@
       <c r="E16" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>226</v>
       </c>
@@ -1441,8 +3254,15 @@
       <c r="E17" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>215</v>
       </c>
@@ -1458,8 +3278,12 @@
       <c r="E18" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>204</v>
       </c>
@@ -1475,8 +3299,15 @@
       <c r="E19" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="M19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>205</v>
       </c>
@@ -1492,8 +3323,13 @@
       <c r="E20" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>209</v>
       </c>
@@ -1509,8 +3345,15 @@
       <c r="E21" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>218</v>
       </c>
@@ -1526,8 +3369,15 @@
       <c r="E22" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>230</v>
       </c>
@@ -1543,8 +3393,15 @@
       <c r="E23" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>207</v>
       </c>
@@ -1560,8 +3417,15 @@
       <c r="E24" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>216</v>
       </c>
@@ -1577,8 +3441,15 @@
       <c r="E25" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>225</v>
       </c>
@@ -1594,8 +3465,12 @@
       <c r="E26" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>210</v>
       </c>
@@ -1611,8 +3486,12 @@
       <c r="E27" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>227</v>
       </c>
@@ -1628,8 +3507,12 @@
       <c r="E28" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>229</v>
       </c>
@@ -1645,8 +3528,12 @@
       <c r="E29" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>208</v>
       </c>
@@ -1662,8 +3549,12 @@
       <c r="E30" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>217</v>
       </c>
@@ -1678,6 +3569,10 @@
       </c>
       <c r="E31" s="5">
         <v>103</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1685,11 +3580,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045819FD-42BD-4A72-A7AE-904B7042C31E}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
